--- a/documentacao/backlog.xlsx
+++ b/documentacao/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheron_carneiro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheron_carneiro\Documents\FORMULA1_NOVO\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>lista de tarefas</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>inicialização do projeto</t>
+  </si>
+  <si>
+    <t>index.html(front)</t>
+  </si>
+  <si>
+    <t>style.css(front)</t>
+  </si>
+  <si>
+    <t>f1_main.js</t>
   </si>
 </sst>
 </file>
@@ -937,10 +946,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E27"/>
+  <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1100,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1116,6 +1125,46 @@
         <v>65</v>
       </c>
       <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>40</v>
       </c>
     </row>

--- a/documentacao/backlog.xlsx
+++ b/documentacao/backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>lista de tarefas</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>f1_main.js</t>
+  </si>
+  <si>
+    <t>f1_class.js</t>
   </si>
 </sst>
 </file>
@@ -948,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1165,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
